--- a/Reports/ExcelReports/Report_CaseReport/closed.xlsx
+++ b/Reports/ExcelReports/Report_CaseReport/closed.xlsx
@@ -183,6 +183,11 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
     </row>
     <row r="2" ht="15.0" customHeight="true">
       <c r="A2"/>
@@ -196,6 +201,11 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3"/>
@@ -209,6 +219,11 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4"/>
@@ -222,6 +237,11 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5"/>
@@ -231,12 +251,17 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" t="s" s="5">
-        <v>1</v>
-      </c>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6"/>
@@ -247,11 +272,16 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" t="n" s="4">
-        <v>41386.74211236111</v>
-      </c>
+      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" t="n" s="4">
+        <v>41388.618888715275</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="3"/>
@@ -265,6 +295,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="s" s="2">
@@ -280,6 +315,11 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9"/>
@@ -293,6 +333,11 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10"/>
@@ -306,6 +351,11 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
     </row>
     <row r="11" ht="30.0" customHeight="true">
       <c r="A11" s="6"/>
@@ -319,6 +369,11 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" ht="30.0" customHeight="true">
       <c r="A12" s="6"/>
@@ -332,6 +387,11 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" ht="30.0" customHeight="true">
       <c r="A13" s="6"/>
@@ -345,6 +405,11 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" ht="30.0" customHeight="true">
       <c r="A14" s="6"/>
@@ -358,6 +423,11 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" ht="30.0" customHeight="true">
       <c r="A15" s="6"/>
@@ -371,268 +441,157 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-    </row>
-    <row r="16" ht="30.0" customHeight="true">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" ht="30.0" customHeight="true">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" ht="30.0" customHeight="true">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" ht="30.0" customHeight="true">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" ht="30.0" customHeight="true">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" ht="30.0" customHeight="true">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" ht="30.0" customHeight="true">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" ht="30.0" customHeight="true">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" ht="30.0" customHeight="true">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" ht="30.0" customHeight="true">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" ht="30.0" customHeight="true">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" ht="30.0" customHeight="true">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" ht="30.0" customHeight="true">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" ht="30.0" customHeight="true">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" ht="30.0" customHeight="true">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" ht="30.0" customHeight="true">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" ht="30.0" customHeight="true">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" ht="15.0" customHeight="true">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-    </row>
-    <row r="34" ht="15.0" customHeight="true">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34" t="s" s="7">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" ht="15.0" customHeight="true">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="K34"/>
-    </row>
-    <row r="35" ht="15.0" customHeight="true">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -641,116 +600,46 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
     <mergeCell ref="A1:G7"/>
-    <mergeCell ref="A8:K10"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A8:P10"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="O17:P17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
